--- a/models/Axe FX II/Amp/Profiles.xlsx
+++ b/models/Axe FX II/Amp/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruslan\Desktop\tonex_models\models\Axe FX II\Amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D69FDCE-A8E5-4B47-A54B-B17D6DF16BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E68716-8A1B-41D1-9427-49CFA2E8BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USA IIC++" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D951AB0-B4F8-4B82-A493-6A02F321D115}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>-7</v>
+        <v>7.46</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
